--- a/parameter_distributions_noCyeast.xlsx
+++ b/parameter_distributions_noCyeast.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shxin\OneDrive - UTS\桌面\Bio\microalgae\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12426131-B8D4-418F-97AB-7297A0A1FB05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703B0C17-E064-4553-9FA7-9DFBFED5220B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6677" yWindow="3111" windowWidth="24686" windowHeight="13055" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4389" yWindow="4457" windowWidth="24685" windowHeight="13054" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="65">
   <si>
     <t>Parameter name</t>
   </si>
@@ -83,22 +83,124 @@
     <t>s.microalgae.T = s.microalgae.T</t>
   </si>
   <si>
+    <t>$/kg</t>
+  </si>
+  <si>
+    <t>Triangular</t>
+  </si>
+  <si>
+    <t>Feedstock unit price</t>
+  </si>
+  <si>
+    <t>$/wet-kg</t>
+  </si>
+  <si>
+    <t>s.microalgae.price = x</t>
+  </si>
+  <si>
+    <t>Natural gas unit price</t>
+  </si>
+  <si>
+    <t>Electricity unit price</t>
+  </si>
+  <si>
+    <t>$/kWh</t>
+  </si>
+  <si>
+    <t>bst.PowerUtility.price = x</t>
+  </si>
+  <si>
+    <t>Yeast unit price</t>
+  </si>
+  <si>
+    <t>Sulfuric Acid unit price</t>
+  </si>
+  <si>
+    <t>s.sulfuricacid.price = x</t>
+  </si>
+  <si>
+    <t>Ammonium Hydroxide unit price</t>
+  </si>
+  <si>
+    <t>s.ammonium_hydroxide.price = x</t>
+  </si>
+  <si>
+    <t>NaOH unit price</t>
+  </si>
+  <si>
+    <t>s.naoh.price = x</t>
+  </si>
+  <si>
+    <t>Feedstock capacity</t>
+  </si>
+  <si>
+    <t>Feedstock</t>
+  </si>
+  <si>
+    <t>coupled</t>
+  </si>
+  <si>
+    <t>kg/h</t>
+  </si>
+  <si>
+    <t>s.microalgae.F_mass = x</t>
+  </si>
+  <si>
+    <t>Conversion</t>
+  </si>
+  <si>
+    <t>Boiler efficiency</t>
+  </si>
+  <si>
+    <t>Co-heat and power</t>
+  </si>
+  <si>
+    <t>u.BT601.boiler_efficiency = x</t>
+  </si>
+  <si>
+    <t>Pretreatment</t>
+  </si>
+  <si>
+    <t>Separation</t>
+  </si>
+  <si>
+    <t>u.S402.set_extraction_efficiency(x)</t>
+  </si>
+  <si>
+    <t>Extraction efficiency factor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oleyl Alcohol unit price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.fresh_oleylalcohol.price = x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>C6 yield</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R301.set_C6_yield(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>GlucoAmylase unit price</t>
-  </si>
-  <si>
-    <t>$/kg</t>
-  </si>
-  <si>
-    <t>Triangular</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s.glucoamylase.price = x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>AlphaAmylase unit price</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>s.alpha_amylase.price = x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>Plant annual operating days</t>
@@ -107,133 +209,42 @@
     <t>d</t>
   </si>
   <si>
-    <t>Feedstock unit price</t>
-  </si>
-  <si>
-    <t>$/wet-kg</t>
-  </si>
-  <si>
-    <t>s.microalgae.price = x</t>
-  </si>
-  <si>
-    <t>Natural gas unit price</t>
+    <t>microalgae_tea.operating_days = x</t>
   </si>
   <si>
     <t>setattr(u.BT601, 'natural_gas_price', x)</t>
-  </si>
-  <si>
-    <t>Electricity unit price</t>
-  </si>
-  <si>
-    <t>$/kWh</t>
-  </si>
-  <si>
-    <t>bst.PowerUtility.price = x</t>
-  </si>
-  <si>
-    <t>Yeast unit price</t>
-  </si>
-  <si>
-    <t>Sulfuric Acid unit price</t>
-  </si>
-  <si>
-    <t>s.sulfuricacid.price = x</t>
-  </si>
-  <si>
-    <t>Ammonium Hydroxide unit price</t>
-  </si>
-  <si>
-    <t>s.ammonium_hydroxide.price = x</t>
-  </si>
-  <si>
-    <t>NaOH unit price</t>
-  </si>
-  <si>
-    <t>s.naoh.price = x</t>
-  </si>
-  <si>
-    <t>Feedstock capacity</t>
-  </si>
-  <si>
-    <t>Feedstock</t>
-  </si>
-  <si>
-    <t>coupled</t>
-  </si>
-  <si>
-    <t>kg/h</t>
-  </si>
-  <si>
-    <t>s.microalgae.F_mass = x</t>
-  </si>
-  <si>
-    <t>Conversion</t>
-  </si>
-  <si>
-    <t>u.R301.set_C6_yield_factor(x)</t>
-  </si>
-  <si>
-    <t>g·L-1</t>
-  </si>
-  <si>
-    <t>u.R301.set_C6_titer(x)</t>
-  </si>
-  <si>
-    <t>Boiler efficiency</t>
-  </si>
-  <si>
-    <t>Co-heat and power</t>
-  </si>
-  <si>
-    <t>u.BT601.boiler_efficiency = x</t>
-  </si>
-  <si>
-    <t>Acid loading factor</t>
-  </si>
-  <si>
-    <t>Pretreatment</t>
-  </si>
-  <si>
-    <t>u.R201.set_acid_loading_factor(x)</t>
-  </si>
-  <si>
-    <t>Enzyme loading factor</t>
-  </si>
-  <si>
-    <t>u.R203.set_enzyme_loading_factor(x)</t>
-  </si>
-  <si>
-    <t>Separation</t>
-  </si>
-  <si>
-    <t>u.S402.set_extraction_efficiency(x)</t>
-  </si>
-  <si>
-    <t>C6 yield factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>C6 titer factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Extraction efficiency factor</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Oleyl Alcohol unit price</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.fresh_oleylalcohol.price = x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>s.fresh_yeast.price = x</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>microalgae_noCyeast_tea.operating_days = x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s.yeast.price = x</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acid loading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>g/g</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GlucoAmylase loading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AlphaAmylase loading</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R204.set_alpha_amylase_loading(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R201.set_acid_loading(x)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>u.R203.set_glucoamylase_loading(x)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -253,6 +264,7 @@
       <b/>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -607,9 +619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.3"/>
   <cols>
@@ -683,7 +693,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -692,7 +702,7 @@
         <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3">
         <v>6.16</v>
@@ -707,15 +717,15 @@
         <v>6.16</v>
       </c>
       <c r="I3">
-        <v>7.3919999999999986</v>
+        <v>10</v>
       </c>
       <c r="K3" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -724,7 +734,7 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4">
         <v>6.16</v>
@@ -739,15 +749,15 @@
         <v>6.16</v>
       </c>
       <c r="I4">
-        <v>7.3919999999999986</v>
+        <v>10</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -756,7 +766,7 @@
         <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="E5">
         <v>330</v>
@@ -774,12 +784,12 @@
         <v>363.00000000000011</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -788,7 +798,7 @@
         <v>13</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="E6">
         <v>0.15</v>
@@ -806,12 +816,12 @@
         <v>0.18</v>
       </c>
       <c r="K6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -820,7 +830,7 @@
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E7">
         <v>0.25269999999999998</v>
@@ -838,12 +848,12 @@
         <v>0.30399999999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -852,7 +862,7 @@
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>7.0000000000000007E-2</v>
@@ -870,12 +880,12 @@
         <v>7.3999999999999996E-2</v>
       </c>
       <c r="K8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -884,7 +894,7 @@
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -902,12 +912,12 @@
         <v>2.4</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -916,7 +926,7 @@
         <v>13</v>
       </c>
       <c r="D10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -934,12 +944,12 @@
         <v>1.2</v>
       </c>
       <c r="K10" t="s">
-        <v>62</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -948,7 +958,7 @@
         <v>13</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11">
         <v>0.11</v>
@@ -966,12 +976,12 @@
         <v>0.13200000000000001</v>
       </c>
       <c r="K11" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -980,7 +990,7 @@
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12">
         <v>0.20399999999999999</v>
@@ -998,12 +1008,12 @@
         <v>0.24479999999999999</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -1012,7 +1022,7 @@
         <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E13">
         <v>1.01</v>
@@ -1030,27 +1040,27 @@
         <v>1.212</v>
       </c>
       <c r="K13" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E14">
         <v>5000</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G14">
         <f>E14*0.8</f>
@@ -1064,166 +1074,172 @@
         <v>6000</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G15">
-        <v>0.8</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>1.47</v>
       </c>
       <c r="I15">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G16">
-        <v>0.8</v>
+        <v>5.0000000000000001E-4</v>
       </c>
       <c r="H16">
-        <v>1</v>
+        <v>1.1000000000000001E-3</v>
       </c>
       <c r="I16">
-        <v>1.2</v>
+        <v>2E-3</v>
       </c>
       <c r="K16" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>59</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G17">
-        <v>0.8</v>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>8.2000000000000007E-3</v>
       </c>
       <c r="I17">
-        <v>1.2</v>
+        <v>0.01</v>
       </c>
       <c r="K17" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E18">
-        <v>2.0030000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G18">
-        <v>1.6024</v>
+        <v>0.1</v>
       </c>
       <c r="H18">
-        <v>2.0030000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="I18">
-        <v>2.4036</v>
+        <v>0.5</v>
       </c>
       <c r="K18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G19">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="K19" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E20">
         <v>0.9</v>
@@ -1241,7 +1257,7 @@
         <v>0.95</v>
       </c>
       <c r="K20" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
